--- a/jogos_2025-05-15.xlsx
+++ b/jogos_2025-05-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="206">
   <si>
     <t>Date</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Georgia Erovnuli Liga</t>
+  </si>
+  <si>
     <t>Turkey 1. Lig</t>
   </si>
   <si>
-    <t>Georgia Erovnuli Liga</t>
-  </si>
-  <si>
     <t>Iran Persian Gulf Pro League</t>
   </si>
   <si>
@@ -274,27 +274,27 @@
     <t>Norway Toppserien</t>
   </si>
   <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
+    <t>Norway First Division</t>
   </si>
   <si>
     <t>Algeria Ligue 1</t>
   </si>
   <si>
-    <t>Norway First Division</t>
-  </si>
-  <si>
     <t>Portugal LigaPro</t>
   </si>
   <si>
+    <t>Switzerland Super League</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Switzerland Super League</t>
-  </si>
-  <si>
     <t>USA MLS Next Pro</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>Levski Krumovgrad</t>
   </si>
   <si>
+    <t>Samgurali</t>
+  </si>
+  <si>
     <t>Bandırmaspor</t>
   </si>
   <si>
-    <t>Samgurali</t>
-  </si>
-  <si>
     <t>Persepolis</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>CA Bizertin</t>
   </si>
   <si>
+    <t>Stade Tunisien</t>
+  </si>
+  <si>
+    <t>Etoile du Sahel</t>
+  </si>
+  <si>
     <t>ES Tunis</t>
   </si>
   <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>Stade Tunisien</t>
-  </si>
-  <si>
     <t>Mes Rafsanjan</t>
   </si>
   <si>
@@ -364,57 +364,57 @@
     <t>Al Quadisiya</t>
   </si>
   <si>
+    <t>Vålerenga Women</t>
+  </si>
+  <si>
+    <t>Bodø / Glimt W</t>
+  </si>
+  <si>
+    <t>Røa Women</t>
+  </si>
+  <si>
     <t>Lillestrøm W</t>
   </si>
   <si>
     <t>Brann W</t>
   </si>
   <si>
-    <t>Røa Women</t>
-  </si>
-  <si>
-    <t>Vålerenga Women</t>
-  </si>
-  <si>
-    <t>Bodø / Glimt W</t>
-  </si>
-  <si>
     <t>Al Riyadh</t>
   </si>
   <si>
     <t>Esteghlal Khuzestan</t>
   </si>
   <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
+    <t>CA Osasuna</t>
+  </si>
+  <si>
+    <t>İstanbulspor</t>
+  </si>
+  <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
     <t>Värnamo</t>
   </si>
   <si>
+    <t>ES Sétif</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Djurgården</t>
+  </si>
+  <si>
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
-    <t>CA Osasuna</t>
-  </si>
-  <si>
-    <t>ES Sétif</t>
-  </si>
-  <si>
-    <t>İstanbulspor</t>
-  </si>
-  <si>
-    <t>Djurgården</t>
-  </si>
-  <si>
-    <t>Ranheim</t>
-  </si>
-  <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
     <t>Septemvri Sofia</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>Al Raed</t>
   </si>
   <si>
+    <t>Servette</t>
+  </si>
+  <si>
     <t>Widzew Łódź</t>
   </si>
   <si>
-    <t>Servette</t>
-  </si>
-  <si>
     <t>Young Boys</t>
   </si>
   <si>
@@ -448,30 +448,24 @@
     <t>CD Mafra</t>
   </si>
   <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
     <t>Talleres Córdoba</t>
   </si>
   <si>
-    <t>MC Oran</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Oued Akbou</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
     <t>Cavalier</t>
   </si>
   <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>River Plate</t>
   </si>
   <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
     <t>Ferroviária</t>
   </si>
   <si>
@@ -481,12 +475,12 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Torpedo Kutaisi</t>
+  </si>
+  <si>
     <t>BB Erzurumspor</t>
   </si>
   <si>
-    <t>Torpedo Kutaisi</t>
-  </si>
-  <si>
     <t>Havadar</t>
   </si>
   <si>
@@ -508,15 +502,15 @@
     <t>Olympique Béja</t>
   </si>
   <si>
+    <t>AS Slimane</t>
+  </si>
+  <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
     <t>Monastir</t>
   </si>
   <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
-    <t>AS Slimane</t>
-  </si>
-  <si>
     <t>Kheybar Khorramabad</t>
   </si>
   <si>
@@ -526,57 +520,57 @@
     <t>Al Wahda</t>
   </si>
   <si>
+    <t>Trondheims-Ørn</t>
+  </si>
+  <si>
+    <t>Lyn W</t>
+  </si>
+  <si>
+    <t>Hønefoss Women</t>
+  </si>
+  <si>
     <t>Kolbotn</t>
   </si>
   <si>
     <t>Stabæk Women</t>
   </si>
   <si>
-    <t>Hønefoss Women</t>
-  </si>
-  <si>
-    <t>Trondheims-Ørn</t>
-  </si>
-  <si>
-    <t>Lyn W</t>
-  </si>
-  <si>
     <t>Al Shabab</t>
   </si>
   <si>
     <t>Tractor Sazi</t>
   </si>
   <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Öster</t>
+  </si>
+  <si>
+    <t>Atlético Madrid</t>
+  </si>
+  <si>
+    <t>Boluspor</t>
+  </si>
+  <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
     <t>Malmö FF</t>
   </si>
   <si>
+    <t>CS Constantine</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
     <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
-    <t>CS Constantine</t>
-  </si>
-  <si>
-    <t>Boluspor</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Raufoss</t>
-  </si>
-  <si>
-    <t>Öster</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
     <t>Hebar 1918</t>
   </si>
   <si>
@@ -586,12 +580,12 @@
     <t>Al Ittihad</t>
   </si>
   <si>
+    <t>Lugano</t>
+  </si>
+  <si>
     <t>Legia Warszawa</t>
   </si>
   <si>
-    <t>Lugano</t>
-  </si>
-  <si>
     <t>Luzern</t>
   </si>
   <si>
@@ -610,28 +604,22 @@
     <t>Torreense</t>
   </si>
   <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
     <t>Alianza Lima</t>
   </si>
   <si>
-    <t>NC Magra</t>
-  </si>
-  <si>
-    <t>Bolívar</t>
-  </si>
-  <si>
-    <t>USM Khenchela</t>
-  </si>
-  <si>
     <t>Internacional</t>
   </si>
   <si>
     <t>Arnett Gardens</t>
   </si>
   <si>
+    <t>LDU Quito</t>
+  </si>
+  <si>
     <t>CSD Independiente del Valle</t>
-  </si>
-  <si>
-    <t>LDU Quito</t>
   </si>
   <si>
     <t>Avaí</t>
@@ -1007,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD55"/>
+  <dimension ref="A1:BD53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,7 +1188,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1215,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1236,31 +1224,31 @@
         <v>2.07</v>
       </c>
       <c r="R2">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S2">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="T2">
         <v>3.3</v>
       </c>
       <c r="U2">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="V2">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="W2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X2">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Y2">
-        <v>6.25</v>
+        <v>5.76</v>
       </c>
       <c r="Z2">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AA2">
         <v>2.5</v>
@@ -1275,7 +1263,7 @@
         <v>4.6</v>
       </c>
       <c r="AE2">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF2">
         <v>2.1</v>
@@ -1284,25 +1272,25 @@
         <v>1.67</v>
       </c>
       <c r="AH2">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AI2">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AJ2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL2">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AM2">
         <v>1.33</v>
       </c>
       <c r="AN2">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AO2">
         <v>-1</v>
@@ -1311,31 +1299,31 @@
         <v>1.39</v>
       </c>
       <c r="AQ2">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AR2">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="AS2">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="AT2">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AU2">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="AV2">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="AW2">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AX2">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AY2">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1364,13 +1352,13 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
         <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1385,43 +1373,43 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L3">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="M3">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="N3">
-        <v>2.86</v>
+        <v>2.39</v>
       </c>
       <c r="O3">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="Q3">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="R3">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S3">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="T3">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="U3">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="V3">
-        <v>7.9</v>
+        <v>6.75</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X3">
         <v>1.07</v>
@@ -1430,25 +1418,25 @@
         <v>8</v>
       </c>
       <c r="Z3">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA3">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="AB3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AD3">
-        <v>4.1</v>
+        <v>3.42</v>
       </c>
       <c r="AE3">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AF3">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AG3">
         <v>1.91</v>
@@ -1460,52 +1448,52 @@
         <v>1.07</v>
       </c>
       <c r="AJ3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL3">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AM3">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AN3">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1514,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="BC3">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="BD3" s="3">
         <v>45792.41666666666</v>
@@ -1534,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1555,43 +1543,43 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L4">
         <v>2.55</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="P4">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="R4">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S4">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="T4">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="U4">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="V4">
-        <v>6.75</v>
+        <v>7.9</v>
       </c>
       <c r="W4">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X4">
         <v>1.07</v>
@@ -1600,25 +1588,25 @@
         <v>8</v>
       </c>
       <c r="Z4">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA4">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="AB4">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="AC4">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AD4">
-        <v>3.42</v>
+        <v>4.1</v>
       </c>
       <c r="AE4">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AF4">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AG4">
         <v>1.91</v>
@@ -1630,52 +1618,52 @@
         <v>1.07</v>
       </c>
       <c r="AJ4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL4">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AM4">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AN4">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AO4">
         <v>-1</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1684,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="BC4">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="BD4" s="3">
         <v>45792.41666666666</v>
@@ -1710,7 +1698,7 @@
         <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1725,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L5">
         <v>1.28</v>
@@ -1746,73 +1734,73 @@
         <v>5.5</v>
       </c>
       <c r="R5">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S5">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="T5">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="U5">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V5">
-        <v>7.2</v>
+        <v>6.75</v>
       </c>
       <c r="W5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X5">
         <v>1.02</v>
       </c>
       <c r="Y5">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Z5">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA5">
-        <v>2.83</v>
+        <v>3.2</v>
       </c>
       <c r="AB5">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AC5">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AD5">
-        <v>3.58</v>
+        <v>3.65</v>
       </c>
       <c r="AE5">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AF5">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AG5">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AH5">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AI5">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AJ5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL5">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AM5">
         <v>1.15</v>
       </c>
       <c r="AN5">
-        <v>3.02</v>
+        <v>3.46</v>
       </c>
       <c r="AO5">
         <v>-1</v>
@@ -1880,7 +1868,7 @@
         <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1895,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="N6">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O6">
         <v>1.93</v>
@@ -1916,10 +1904,10 @@
         <v>2.4</v>
       </c>
       <c r="R6">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S6">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="T6">
         <v>3.65</v>
@@ -1934,10 +1922,10 @@
         <v>1.05</v>
       </c>
       <c r="X6">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y6">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="Z6">
         <v>1.5</v>
@@ -1946,13 +1934,13 @@
         <v>2.3</v>
       </c>
       <c r="AB6">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="AC6">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AD6">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="AE6">
         <v>1.09</v>
@@ -1970,19 +1958,19 @@
         <v>1.03</v>
       </c>
       <c r="AJ6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL6">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM6">
         <v>1.33</v>
       </c>
       <c r="AN6">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AO6">
         <v>-1</v>
@@ -2050,7 +2038,7 @@
         <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2065,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2110,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2140,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -2220,7 +2208,7 @@
         <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2235,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L8">
         <v>1.48</v>
@@ -2310,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2390,7 +2378,7 @@
         <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2405,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L9">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="M9">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="O9">
         <v>1.62</v>
@@ -2426,73 +2414,73 @@
         <v>3</v>
       </c>
       <c r="R9">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S9">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="V9">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="W9">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X9">
         <v>1.04</v>
       </c>
       <c r="Y9">
-        <v>6.95</v>
+        <v>6.2</v>
       </c>
       <c r="Z9">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AA9">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AB9">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="AC9">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AD9">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AE9">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF9">
         <v>2.1</v>
       </c>
       <c r="AG9">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AH9">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI9">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AJ9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL9">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AM9">
         <v>1.28</v>
       </c>
       <c r="AN9">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AO9">
         <v>-1</v>
@@ -2560,7 +2548,7 @@
         <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2575,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <v>1.63</v>
@@ -2596,34 +2584,34 @@
         <v>2.86</v>
       </c>
       <c r="R10">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S10">
         <v>3.2</v>
       </c>
       <c r="T10">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="W10">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X10">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="Y10">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="Z10">
         <v>1.18</v>
       </c>
       <c r="AA10">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AB10">
         <v>1.86</v>
@@ -2632,70 +2620,70 @@
         <v>1.84</v>
       </c>
       <c r="AD10">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="AE10">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AF10">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AG10">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AH10">
-        <v>4.45</v>
+        <v>5.4</v>
       </c>
       <c r="AI10">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AJ10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL10">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AM10">
         <v>1.27</v>
       </c>
       <c r="AN10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AO10">
         <v>-1</v>
       </c>
       <c r="AP10">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ10">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AR10">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="AS10">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="AT10">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AU10">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="AV10">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AW10">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AX10">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AY10">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2730,7 +2718,7 @@
         <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2745,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2820,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2900,7 +2888,7 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2915,16 +2903,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2990,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -3070,7 +3058,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3085,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3130,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3160,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3240,7 +3228,7 @@
         <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3255,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3330,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3410,7 +3398,7 @@
         <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3425,16 +3413,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3476,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -3500,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -3580,7 +3568,7 @@
         <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3595,16 +3583,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3640,16 +3628,16 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -3670,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3750,7 +3738,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3765,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L17">
         <v>1.26</v>
@@ -3840,10 +3828,10 @@
         <v>1.25</v>
       </c>
       <c r="AJ17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL17">
         <v>1.05</v>
@@ -3920,7 +3908,7 @@
         <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3935,25 +3923,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L18">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="M18">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="N18">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3986,16 +3974,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="AC18">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
       <c r="AD18">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -4010,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -4064,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="BC18">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="BD18" s="3">
         <v>45792.54166666666</v>
@@ -4090,7 +4078,7 @@
         <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4105,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L19">
-        <v>1.17</v>
+        <v>3.85</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>3.41</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>1.83</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -4156,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="AC19">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -4180,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -4234,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BD19" s="3">
         <v>45792.54166666666</v>
@@ -4260,7 +4248,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4275,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N20">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
         <v>1.67</v>
@@ -4326,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AC20">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -4350,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -4430,7 +4418,7 @@
         <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4445,25 +4433,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L21">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="M21">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O21">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -4496,16 +4484,16 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AC21">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -4520,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -4574,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="BC21">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="BD21" s="3">
         <v>45792.54166666666</v>
@@ -4600,7 +4588,7 @@
         <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4615,25 +4603,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L22">
-        <v>3.33</v>
+        <v>1.14</v>
       </c>
       <c r="M22">
-        <v>3.24</v>
+        <v>7.2</v>
       </c>
       <c r="N22">
-        <v>2.04</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>2.88</v>
+        <v>1.14</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -4666,16 +4654,16 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="AC22">
-        <v>1.79</v>
+        <v>2.64</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4690,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -4744,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>2.88</v>
+        <v>1.14</v>
       </c>
       <c r="BC22">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="BD22" s="3">
         <v>45792.54166666666</v>
@@ -4770,7 +4758,7 @@
         <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4785,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L23">
         <v>4.37</v>
@@ -4860,10 +4848,10 @@
         <v>1.22</v>
       </c>
       <c r="AJ23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL23">
         <v>2.15</v>
@@ -4940,7 +4928,7 @@
         <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4955,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -4976,16 +4964,16 @@
         <v>1.4</v>
       </c>
       <c r="R24">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S24">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="U24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V24">
         <v>8.1</v>
@@ -4994,16 +4982,16 @@
         <v>1.02</v>
       </c>
       <c r="X24">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="Y24">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="Z24">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AA24">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AB24">
         <v>2.25</v>
@@ -5012,16 +5000,16 @@
         <v>1.53</v>
       </c>
       <c r="AD24">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AE24">
         <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AG24">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AH24">
         <v>8.300000000000001</v>
@@ -5030,13 +5018,13 @@
         <v>1.02</v>
       </c>
       <c r="AJ24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL24">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="AM24">
         <v>1.25</v>
@@ -5104,13 +5092,13 @@
         <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5125,127 +5113,127 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="N25">
-        <v>1.52</v>
+        <v>2.35</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q25">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="R25">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S25">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V25">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="W25">
+        <v>1.1</v>
+      </c>
+      <c r="X25">
         <v>1.06</v>
       </c>
-      <c r="X25">
-        <v>1.05</v>
-      </c>
       <c r="Y25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z25">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA25">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AB25">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AC25">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AD25">
         <v>3.35</v>
       </c>
       <c r="AE25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF25">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AG25">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AH25">
         <v>6.5</v>
       </c>
       <c r="AI25">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AJ25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL25">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="AM25">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AN25">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AO25">
         <v>-1</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AR25">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="AT25">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="AU25">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="AV25">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
       <c r="AW25">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AX25">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AY25">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -5254,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="BC25">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="BD25" s="3">
         <v>45792.58333333334</v>
@@ -5271,7 +5259,7 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -5280,7 +5268,7 @@
         <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5295,43 +5283,43 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L26">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="M26">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="N26">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O26">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="P26">
         <v>11</v>
       </c>
       <c r="Q26">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="R26">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S26">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T26">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U26">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V26">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="W26">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X26">
         <v>1.04</v>
@@ -5340,94 +5328,94 @@
         <v>11</v>
       </c>
       <c r="Z26">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA26">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB26">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AC26">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="AD26">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AE26">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AF26">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AG26">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AH26">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AJ26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL26">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AM26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AO26">
         <v>-1</v>
       </c>
       <c r="AP26">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AS26">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AT26">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="AU26">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AV26">
+        <v>3.4</v>
+      </c>
+      <c r="AW26">
+        <v>2.55</v>
+      </c>
+      <c r="AX26">
+        <v>2.05</v>
+      </c>
+      <c r="AY26">
+        <v>1.7</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>1.48</v>
+      </c>
+      <c r="BC26">
         <v>2.95</v>
-      </c>
-      <c r="AW26">
-        <v>2.25</v>
-      </c>
-      <c r="AX26">
-        <v>1.81</v>
-      </c>
-      <c r="AY26">
-        <v>1.52</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>1.6</v>
-      </c>
-      <c r="BC26">
-        <v>2.55</v>
       </c>
       <c r="BD26" s="3">
         <v>45792.58333333334</v>
@@ -5444,13 +5432,13 @@
         <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
         <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5465,127 +5453,127 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L27">
-        <v>1.78</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>3.53</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
+        <v>2.5</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
         <v>1.67</v>
       </c>
-      <c r="P27">
-        <v>11</v>
-      </c>
-      <c r="Q27">
-        <v>2.45</v>
-      </c>
       <c r="R27">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S27">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="T27">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="V27">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="W27">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="X27">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Y27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z27">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AA27">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB27">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="AC27">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="AD27">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="AE27">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AF27">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AG27">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AH27">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="AI27">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AJ27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL27">
+        <v>1.7</v>
+      </c>
+      <c r="AM27">
         <v>1.25</v>
       </c>
-      <c r="AM27">
-        <v>1.22</v>
-      </c>
       <c r="AN27">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="AO27">
         <v>-1</v>
       </c>
       <c r="AP27">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR27">
-        <v>1.54</v>
+        <v>1.9</v>
       </c>
       <c r="AS27">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="AT27">
+        <v>3.15</v>
+      </c>
+      <c r="AU27">
+        <v>3.05</v>
+      </c>
+      <c r="AV27">
         <v>2.28</v>
       </c>
-      <c r="AU27">
-        <v>4.1</v>
-      </c>
-      <c r="AV27">
-        <v>2.95</v>
-      </c>
       <c r="AW27">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="AX27">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
       <c r="AY27">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5594,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
+        <v>2.5</v>
+      </c>
+      <c r="BC27">
         <v>1.67</v>
-      </c>
-      <c r="BC27">
-        <v>2.45</v>
       </c>
       <c r="BD27" s="3">
         <v>45792.58333333334</v>
@@ -5611,7 +5599,7 @@
         <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
@@ -5620,7 +5608,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5635,127 +5623,127 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>3.66</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>3.92</v>
       </c>
       <c r="O28">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q28">
+        <v>2.45</v>
+      </c>
+      <c r="R28">
+        <v>1.32</v>
+      </c>
+      <c r="S28">
+        <v>3.23</v>
+      </c>
+      <c r="T28">
+        <v>2.62</v>
+      </c>
+      <c r="U28">
+        <v>1.46</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>1.11</v>
+      </c>
+      <c r="X28">
+        <v>1.04</v>
+      </c>
+      <c r="Y28">
+        <v>11</v>
+      </c>
+      <c r="Z28">
+        <v>1.2</v>
+      </c>
+      <c r="AA28">
+        <v>4.33</v>
+      </c>
+      <c r="AB28">
         <v>1.67</v>
       </c>
-      <c r="R28">
+      <c r="AC28">
+        <v>2.15</v>
+      </c>
+      <c r="AD28">
+        <v>2.7</v>
+      </c>
+      <c r="AE28">
         <v>1.44</v>
       </c>
-      <c r="S28">
-        <v>2.63</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>1.36</v>
-      </c>
-      <c r="V28">
-        <v>9</v>
-      </c>
-      <c r="W28">
-        <v>1.07</v>
-      </c>
-      <c r="X28">
-        <v>1.07</v>
-      </c>
-      <c r="Y28">
-        <v>8</v>
-      </c>
-      <c r="Z28">
-        <v>1.36</v>
-      </c>
-      <c r="AA28">
-        <v>3.1</v>
-      </c>
-      <c r="AB28">
-        <v>2.1</v>
-      </c>
-      <c r="AC28">
-        <v>1.73</v>
-      </c>
-      <c r="AD28">
-        <v>3.75</v>
-      </c>
-      <c r="AE28">
-        <v>1.25</v>
-      </c>
       <c r="AF28">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AG28">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH28">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI28">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AJ28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL28">
-        <v>1.7</v>
+        <v>1.23</v>
       </c>
       <c r="AM28">
         <v>1.25</v>
       </c>
       <c r="AN28">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="AO28">
         <v>-1</v>
       </c>
       <c r="AP28">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AR28">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AS28">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="AT28">
-        <v>3.15</v>
+        <v>3.82</v>
       </c>
       <c r="AU28">
-        <v>3.05</v>
+        <v>2.83</v>
       </c>
       <c r="AV28">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="AW28">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AX28">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AY28">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -5764,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="BC28">
-        <v>1.67</v>
+        <v>2.45</v>
       </c>
       <c r="BD28" s="3">
         <v>45792.58333333334</v>
@@ -5784,13 +5772,13 @@
         <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5805,127 +5793,127 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AJ29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5934,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BD29" s="3">
         <v>45792.58333333334</v>
@@ -5951,16 +5939,16 @@
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
         <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5975,127 +5963,127 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L30">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
       <c r="N30">
-        <v>3.92</v>
+        <v>1.52</v>
       </c>
       <c r="O30">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30">
-        <v>2.45</v>
+        <v>1.48</v>
       </c>
       <c r="R30">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S30">
-        <v>3.23</v>
+        <v>2.95</v>
       </c>
       <c r="T30">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U30">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="W30">
+        <v>1.06</v>
+      </c>
+      <c r="X30">
+        <v>1.05</v>
+      </c>
+      <c r="Y30">
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>1.28</v>
+      </c>
+      <c r="AA30">
+        <v>3.65</v>
+      </c>
+      <c r="AB30">
+        <v>1.87</v>
+      </c>
+      <c r="AC30">
+        <v>1.83</v>
+      </c>
+      <c r="AD30">
+        <v>3.35</v>
+      </c>
+      <c r="AE30">
+        <v>1.33</v>
+      </c>
+      <c r="AF30">
+        <v>1.9</v>
+      </c>
+      <c r="AG30">
+        <v>1.77</v>
+      </c>
+      <c r="AH30">
+        <v>6.5</v>
+      </c>
+      <c r="AI30">
         <v>1.11</v>
       </c>
-      <c r="X30">
-        <v>1.04</v>
-      </c>
-      <c r="Y30">
-        <v>11</v>
-      </c>
-      <c r="Z30">
-        <v>1.2</v>
-      </c>
-      <c r="AA30">
-        <v>4.33</v>
-      </c>
-      <c r="AB30">
-        <v>1.67</v>
-      </c>
-      <c r="AC30">
-        <v>2.15</v>
-      </c>
-      <c r="AD30">
-        <v>2.7</v>
-      </c>
-      <c r="AE30">
-        <v>1.44</v>
-      </c>
-      <c r="AF30">
-        <v>1.57</v>
-      </c>
-      <c r="AG30">
-        <v>2.25</v>
-      </c>
-      <c r="AH30">
-        <v>5.5</v>
-      </c>
-      <c r="AI30">
+      <c r="AJ30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL30">
+        <v>2.3</v>
+      </c>
+      <c r="AM30">
+        <v>1.18</v>
+      </c>
+      <c r="AN30">
         <v>1.14</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL30">
-        <v>1.23</v>
-      </c>
-      <c r="AM30">
-        <v>1.25</v>
-      </c>
-      <c r="AN30">
-        <v>1.95</v>
       </c>
       <c r="AO30">
         <v>-1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
-        <v>2.11</v>
+        <v>1.49</v>
       </c>
       <c r="AS30">
-        <v>2.78</v>
+        <v>1.77</v>
       </c>
       <c r="AT30">
-        <v>3.82</v>
+        <v>2.15</v>
       </c>
       <c r="AU30">
-        <v>2.83</v>
+        <v>4.4</v>
       </c>
       <c r="AV30">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="AW30">
-        <v>1.69</v>
+        <v>2.4</v>
       </c>
       <c r="AX30">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="AY30">
-        <v>1.19</v>
+        <v>1.61</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6104,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="BC30">
-        <v>2.45</v>
+        <v>1.48</v>
       </c>
       <c r="BD30" s="3">
         <v>45792.58333333334</v>
@@ -6121,16 +6109,16 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6145,127 +6133,127 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L31">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="M31">
-        <v>3.27</v>
+        <v>3.01</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>3.41</v>
       </c>
       <c r="O31">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="P31">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q31">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="R31">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="S31">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="T31">
-        <v>2.8</v>
+        <v>3.92</v>
       </c>
       <c r="U31">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="V31">
-        <v>6.65</v>
+        <v>9.1</v>
       </c>
       <c r="W31">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="X31">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Y31">
-        <v>9.5</v>
+        <v>5.75</v>
       </c>
       <c r="Z31">
+        <v>1.55</v>
+      </c>
+      <c r="AA31">
+        <v>2.2</v>
+      </c>
+      <c r="AB31">
+        <v>2.94</v>
+      </c>
+      <c r="AC31">
+        <v>1.35</v>
+      </c>
+      <c r="AD31">
+        <v>5.55</v>
+      </c>
+      <c r="AE31">
+        <v>1.11</v>
+      </c>
+      <c r="AF31">
+        <v>2.45</v>
+      </c>
+      <c r="AG31">
+        <v>1.5</v>
+      </c>
+      <c r="AH31">
+        <v>17</v>
+      </c>
+      <c r="AI31">
+        <v>1.02</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
         <v>1.33</v>
       </c>
-      <c r="AA31">
-        <v>3.35</v>
-      </c>
-      <c r="AB31">
-        <v>1.91</v>
-      </c>
-      <c r="AC31">
-        <v>1.79</v>
-      </c>
-      <c r="AD31">
-        <v>3.55</v>
-      </c>
-      <c r="AE31">
-        <v>1.3</v>
-      </c>
-      <c r="AF31">
-        <v>1.73</v>
-      </c>
-      <c r="AG31">
-        <v>1.95</v>
-      </c>
-      <c r="AH31">
-        <v>7</v>
-      </c>
-      <c r="AI31">
-        <v>1.1</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL31">
-        <v>1.4</v>
-      </c>
-      <c r="AM31">
-        <v>1.25</v>
-      </c>
       <c r="AN31">
-        <v>1.57</v>
+        <v>1.97</v>
       </c>
       <c r="AO31">
         <v>-1</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>1.35</v>
+        <v>2.11</v>
       </c>
       <c r="AR31">
-        <v>1.57</v>
+        <v>2.72</v>
       </c>
       <c r="AS31">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="AT31">
-        <v>2.38</v>
+        <v>5.15</v>
       </c>
       <c r="AU31">
-        <v>3.95</v>
+        <v>2.13</v>
       </c>
       <c r="AV31">
-        <v>2.9</v>
+        <v>1.68</v>
       </c>
       <c r="AW31">
-        <v>2.23</v>
+        <v>1.4</v>
       </c>
       <c r="AX31">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="AY31">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AZ31">
         <v>0</v>
@@ -6274,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="BC31">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="BD31" s="3">
         <v>45792.58333333334</v>
@@ -6291,7 +6279,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
@@ -6300,7 +6288,7 @@
         <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6315,43 +6303,43 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L32">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="M32">
+        <v>3.62</v>
+      </c>
+      <c r="N32">
         <v>3.53</v>
       </c>
-      <c r="N32">
+      <c r="O32">
+        <v>1.67</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>2.45</v>
+      </c>
+      <c r="R32">
+        <v>1.3</v>
+      </c>
+      <c r="S32">
         <v>3.2</v>
       </c>
-      <c r="O32">
-        <v>1.69</v>
-      </c>
-      <c r="P32">
-        <v>14.25</v>
-      </c>
-      <c r="Q32">
-        <v>2.26</v>
-      </c>
-      <c r="R32">
-        <v>1.33</v>
-      </c>
-      <c r="S32">
-        <v>3</v>
-      </c>
       <c r="T32">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="U32">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="W32">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="X32">
         <v>1.04</v>
@@ -6360,82 +6348,82 @@
         <v>11</v>
       </c>
       <c r="Z32">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA32">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AB32">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AD32">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AE32">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF32">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AG32">
         <v>2.1</v>
       </c>
       <c r="AH32">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="AI32">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AJ32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL32">
         <v>1.25</v>
       </c>
       <c r="AM32">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AN32">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AO32">
         <v>-1</v>
       </c>
       <c r="AP32">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AS32">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="AT32">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="AU32">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AV32">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="AW32">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="AX32">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AY32">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -6444,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="BC32">
-        <v>2.26</v>
+        <v>2.45</v>
       </c>
       <c r="BD32" s="3">
         <v>45792.58333333334</v>
@@ -6461,7 +6449,7 @@
         <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
@@ -6470,7 +6458,7 @@
         <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6485,127 +6473,127 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L33">
-        <v>1.52</v>
+        <v>2.25</v>
       </c>
       <c r="M33">
-        <v>3.94</v>
+        <v>3.27</v>
       </c>
       <c r="N33">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Q33">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="R33">
+        <v>1.38</v>
+      </c>
+      <c r="S33">
+        <v>2.8</v>
+      </c>
+      <c r="T33">
+        <v>2.8</v>
+      </c>
+      <c r="U33">
+        <v>1.38</v>
+      </c>
+      <c r="V33">
+        <v>6.65</v>
+      </c>
+      <c r="W33">
+        <v>1.05</v>
+      </c>
+      <c r="X33">
+        <v>1.06</v>
+      </c>
+      <c r="Y33">
+        <v>9.5</v>
+      </c>
+      <c r="Z33">
+        <v>1.33</v>
+      </c>
+      <c r="AA33">
+        <v>3.35</v>
+      </c>
+      <c r="AB33">
+        <v>1.91</v>
+      </c>
+      <c r="AC33">
+        <v>1.79</v>
+      </c>
+      <c r="AD33">
+        <v>3.55</v>
+      </c>
+      <c r="AE33">
         <v>1.3</v>
       </c>
-      <c r="S33">
-        <v>3.2</v>
-      </c>
-      <c r="T33">
-        <v>2.4</v>
-      </c>
-      <c r="U33">
-        <v>1.5</v>
-      </c>
-      <c r="V33">
-        <v>5.4</v>
-      </c>
-      <c r="W33">
-        <v>1.09</v>
-      </c>
-      <c r="X33">
-        <v>1.04</v>
-      </c>
-      <c r="Y33">
-        <v>11</v>
-      </c>
-      <c r="Z33">
-        <v>1.22</v>
-      </c>
-      <c r="AA33">
-        <v>4.33</v>
-      </c>
-      <c r="AB33">
-        <v>1.76</v>
-      </c>
-      <c r="AC33">
-        <v>1.94</v>
-      </c>
-      <c r="AD33">
-        <v>2.75</v>
-      </c>
-      <c r="AE33">
-        <v>1.45</v>
-      </c>
       <c r="AF33">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AG33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI33">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AJ33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL33">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AM33">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AN33">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="AO33">
         <v>-1</v>
       </c>
       <c r="AP33">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AR33">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS33">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="AT33">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AU33">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="AV33">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AW33">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="AX33">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="AY33">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -6614,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="BC33">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="BD33" s="3">
         <v>45792.58333333334</v>
@@ -6634,13 +6622,13 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
         <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6655,127 +6643,127 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="M34">
+        <v>3.79</v>
+      </c>
+      <c r="N34">
+        <v>4.1</v>
+      </c>
+      <c r="O34">
+        <v>1.6</v>
+      </c>
+      <c r="P34">
+        <v>11</v>
+      </c>
+      <c r="Q34">
+        <v>2.55</v>
+      </c>
+      <c r="R34">
+        <v>1.28</v>
+      </c>
+      <c r="S34">
         <v>3.3</v>
       </c>
-      <c r="N34">
-        <v>2.35</v>
-      </c>
-      <c r="O34">
-        <v>2.2</v>
-      </c>
-      <c r="P34">
-        <v>8.5</v>
-      </c>
-      <c r="Q34">
-        <v>1.8</v>
-      </c>
-      <c r="R34">
-        <v>1.36</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="U34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="V34">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="W34">
         <v>1.1</v>
       </c>
       <c r="X34">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Y34">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z34">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AA34">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="AB34">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AC34">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AD34">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="AE34">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AF34">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AG34">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AH34">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AI34">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AJ34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL34">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AM34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AN34">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO34">
         <v>-1</v>
       </c>
       <c r="AP34">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ34">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="AS34">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AT34">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="AU34">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AV34">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="AW34">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AX34">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="AY34">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -6784,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="BC34">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="BD34" s="3">
         <v>45792.58333333334</v>
@@ -6810,7 +6798,7 @@
         <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6825,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L35">
         <v>1.37</v>
@@ -6846,34 +6834,34 @@
         <v>3.3</v>
       </c>
       <c r="R35">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="S35">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="U35">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="V35">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="W35">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="X35">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y35">
-        <v>12</v>
+        <v>14.8</v>
       </c>
       <c r="Z35">
         <v>1.18</v>
       </c>
       <c r="AA35">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AB35">
         <v>1.7</v>
@@ -6882,28 +6870,28 @@
         <v>1.95</v>
       </c>
       <c r="AD35">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AE35">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AF35">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AG35">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AH35">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="AI35">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AJ35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL35">
         <v>1.17</v>
@@ -6912,31 +6900,31 @@
         <v>1.19</v>
       </c>
       <c r="AN35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>-1</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AQ35">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AR35">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="AS35">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AT35">
-        <v>2.63</v>
+        <v>3.08</v>
       </c>
       <c r="AU35">
-        <v>3.45</v>
+        <v>3.22</v>
       </c>
       <c r="AV35">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AW35">
         <v>1.89</v>
@@ -6945,7 +6933,7 @@
         <v>1.57</v>
       </c>
       <c r="AY35">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -6980,7 +6968,7 @@
         <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6995,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L36">
         <v>3.4</v>
@@ -7070,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -7150,7 +7138,7 @@
         <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7165,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L37">
         <v>7.48</v>
@@ -7240,10 +7228,10 @@
         <v>1.3</v>
       </c>
       <c r="AJ37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL37">
         <v>3.05</v>
@@ -7320,7 +7308,7 @@
         <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7335,128 +7323,128 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L38">
-        <v>3.32</v>
+        <v>1.82</v>
       </c>
       <c r="M38">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="N38">
-        <v>1.93</v>
+        <v>3.45</v>
       </c>
       <c r="O38">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P38">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q38">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R38">
         <v>1.3</v>
       </c>
       <c r="S38">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T38">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="U38">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="V38">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X38">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z38">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AA38">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AB38">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AC38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AD38">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AE38">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF38">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AG38">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="AH38">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="AI38">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AJ38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL38">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AM38">
         <v>1.22</v>
       </c>
       <c r="AN38">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AO38">
         <v>-1</v>
       </c>
       <c r="AP38">
+        <v>1.3</v>
+      </c>
+      <c r="AQ38">
+        <v>1.52</v>
+      </c>
+      <c r="AR38">
+        <v>1.84</v>
+      </c>
+      <c r="AS38">
+        <v>2.32</v>
+      </c>
+      <c r="AT38">
+        <v>3</v>
+      </c>
+      <c r="AU38">
+        <v>3.05</v>
+      </c>
+      <c r="AV38">
+        <v>2.3</v>
+      </c>
+      <c r="AW38">
+        <v>1.82</v>
+      </c>
+      <c r="AX38">
+        <v>1.52</v>
+      </c>
+      <c r="AY38">
         <v>1.32</v>
       </c>
-      <c r="AQ38">
-        <v>1.38</v>
-      </c>
-      <c r="AR38">
-        <v>1.65</v>
-      </c>
-      <c r="AS38">
-        <v>2.43</v>
-      </c>
-      <c r="AT38">
-        <v>3.15</v>
-      </c>
-      <c r="AU38">
-        <v>2.9</v>
-      </c>
-      <c r="AV38">
-        <v>2.55</v>
-      </c>
-      <c r="AW38">
-        <v>2.05</v>
-      </c>
-      <c r="AX38">
-        <v>1.46</v>
-      </c>
-      <c r="AY38">
-        <v>1.27</v>
-      </c>
       <c r="AZ38">
         <v>0</v>
       </c>
@@ -7464,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="BC38">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="BD38" s="3">
         <v>45792.64583333334</v>
@@ -7490,7 +7478,7 @@
         <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7505,127 +7493,127 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L39">
-        <v>1.82</v>
+        <v>3.32</v>
       </c>
       <c r="M39">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="N39">
-        <v>3.45</v>
+        <v>1.93</v>
       </c>
       <c r="O39">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="P39">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q39">
+        <v>1.7</v>
+      </c>
+      <c r="R39">
+        <v>1.32</v>
+      </c>
+      <c r="S39">
+        <v>3.1</v>
+      </c>
+      <c r="T39">
+        <v>2.5</v>
+      </c>
+      <c r="U39">
+        <v>1.47</v>
+      </c>
+      <c r="V39">
+        <v>5.8</v>
+      </c>
+      <c r="W39">
+        <v>1.11</v>
+      </c>
+      <c r="X39">
+        <v>1.05</v>
+      </c>
+      <c r="Y39">
+        <v>9.5</v>
+      </c>
+      <c r="Z39">
+        <v>1.22</v>
+      </c>
+      <c r="AA39">
+        <v>3.9</v>
+      </c>
+      <c r="AB39">
+        <v>1.67</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>2.7</v>
+      </c>
+      <c r="AE39">
+        <v>1.42</v>
+      </c>
+      <c r="AF39">
+        <v>1.62</v>
+      </c>
+      <c r="AG39">
         <v>2.2</v>
       </c>
-      <c r="R39">
-        <v>1.3</v>
-      </c>
-      <c r="S39">
-        <v>3.2</v>
-      </c>
-      <c r="T39">
-        <v>2.4</v>
-      </c>
-      <c r="U39">
-        <v>1.5</v>
-      </c>
-      <c r="V39">
-        <v>5.3</v>
-      </c>
-      <c r="W39">
-        <v>1.09</v>
-      </c>
-      <c r="X39">
-        <v>1.04</v>
-      </c>
-      <c r="Y39">
-        <v>10</v>
-      </c>
-      <c r="Z39">
-        <v>1.2</v>
-      </c>
-      <c r="AA39">
-        <v>4.33</v>
-      </c>
-      <c r="AB39">
-        <v>1.65</v>
-      </c>
-      <c r="AC39">
-        <v>2.05</v>
-      </c>
-      <c r="AD39">
-        <v>2.55</v>
-      </c>
-      <c r="AE39">
-        <v>1.5</v>
-      </c>
-      <c r="AF39">
-        <v>1.5</v>
-      </c>
-      <c r="AG39">
-        <v>2.35</v>
-      </c>
       <c r="AH39">
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="AI39">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AJ39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL39">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AM39">
         <v>1.22</v>
       </c>
       <c r="AN39">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="AO39">
         <v>-1</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AQ39">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AR39">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AS39">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="AT39">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU39">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="AV39">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AW39">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AX39">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AY39">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -7634,10 +7622,10 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="BC39">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="BD39" s="3">
         <v>45792.64583333334</v>
@@ -7651,7 +7639,7 @@
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>98</v>
@@ -7660,7 +7648,7 @@
         <v>138</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7675,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L40">
         <v>1.79</v>
@@ -7750,10 +7738,10 @@
         <v>1.25</v>
       </c>
       <c r="AJ40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL40">
         <v>1.22</v>
@@ -7830,7 +7818,7 @@
         <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7845,16 +7833,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="N41">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="O41">
         <v>1.62</v>
@@ -7866,16 +7854,16 @@
         <v>2.2</v>
       </c>
       <c r="R41">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S41">
         <v>3.28</v>
       </c>
       <c r="T41">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U41">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -7890,49 +7878,49 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AA41">
         <v>4.9</v>
       </c>
       <c r="AB41">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AC41">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="AD41">
         <v>2.15</v>
       </c>
       <c r="AE41">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AF41">
         <v>1.42</v>
       </c>
       <c r="AG41">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="AH41">
         <v>3.5</v>
       </c>
       <c r="AI41">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AJ41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL41">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AM41">
         <v>1.17</v>
       </c>
       <c r="AN41">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AO41">
         <v>-1</v>
@@ -8000,7 +7988,7 @@
         <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -8015,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L42">
         <v>2.07</v>
@@ -8090,10 +8078,10 @@
         <v>1.02</v>
       </c>
       <c r="AJ42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL42">
         <v>1.34</v>
@@ -8161,7 +8149,7 @@
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>98</v>
@@ -8170,7 +8158,7 @@
         <v>141</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -8185,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L43">
         <v>3.4</v>
@@ -8260,10 +8248,10 @@
         <v>1.04</v>
       </c>
       <c r="AJ43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL43">
         <v>1.48</v>
@@ -8331,7 +8319,7 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
         <v>98</v>
@@ -8340,7 +8328,7 @@
         <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -8355,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L44">
         <v>10</v>
@@ -8430,10 +8418,10 @@
         <v>1.25</v>
       </c>
       <c r="AJ44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL44">
         <v>3.4</v>
@@ -8510,7 +8498,7 @@
         <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -8525,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L45">
         <v>3.15</v>
@@ -8600,10 +8588,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -8680,7 +8668,7 @@
         <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -8695,127 +8683,127 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L46">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="M46">
-        <v>3.23</v>
+        <v>6</v>
       </c>
       <c r="N46">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="O46">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P46">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q46">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="S46">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="U46">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="V46">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="W46">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="X46">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="Y46">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z46">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AA46">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="AB46">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="AC46">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="AD46">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="AE46">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AF46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AG46">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AH46">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="AI46">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AJ46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL46">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AM46">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AN46">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ46">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AR46">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AT46">
-        <v>3.3</v>
+        <v>3.07</v>
       </c>
       <c r="AU46">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AV46">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="AW46">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AX46">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AY46">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8824,10 +8812,10 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="BC46">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="BD46" s="3">
         <v>45792.79166666666</v>
@@ -8841,16 +8829,16 @@
         <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
         <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -8865,127 +8853,127 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO47">
         <v>-1</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AS47">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AT47">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AU47">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AV47">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AX47">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AY47">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AZ47">
         <v>0</v>
@@ -8994,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BC47">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BD47" s="3">
         <v>45792.79166666666</v>
@@ -9020,7 +9008,7 @@
         <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -9035,127 +9023,127 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L48">
-        <v>1.16</v>
+        <v>2.65</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>2.99</v>
       </c>
       <c r="N48">
+        <v>2.45</v>
+      </c>
+      <c r="O48">
+        <v>1.95</v>
+      </c>
+      <c r="P48">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>2.2</v>
+      </c>
+      <c r="R48">
+        <v>1.5</v>
+      </c>
+      <c r="S48">
+        <v>2.5</v>
+      </c>
+      <c r="T48">
+        <v>3.4</v>
+      </c>
+      <c r="U48">
+        <v>1.3</v>
+      </c>
+      <c r="V48">
         <v>10</v>
       </c>
-      <c r="O48">
-        <v>1.17</v>
-      </c>
-      <c r="P48">
-        <v>23</v>
-      </c>
-      <c r="Q48">
-        <v>5</v>
-      </c>
-      <c r="R48">
-        <v>1.25</v>
-      </c>
-      <c r="S48">
-        <v>3.75</v>
-      </c>
-      <c r="T48">
-        <v>2.1</v>
-      </c>
-      <c r="U48">
-        <v>1.67</v>
-      </c>
-      <c r="V48">
-        <v>4.5</v>
-      </c>
       <c r="W48">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="X48">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="Y48">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Z48">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="AA48">
-        <v>5.5</v>
+        <v>2.56</v>
       </c>
       <c r="AB48">
+        <v>2.3</v>
+      </c>
+      <c r="AC48">
+        <v>1.5</v>
+      </c>
+      <c r="AD48">
+        <v>4.2</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>1.95</v>
+      </c>
+      <c r="AG48">
+        <v>1.8</v>
+      </c>
+      <c r="AH48">
+        <v>8.5</v>
+      </c>
+      <c r="AI48">
+        <v>1.06</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL48">
         <v>1.45</v>
       </c>
-      <c r="AC48">
-        <v>2.56</v>
-      </c>
-      <c r="AD48">
-        <v>2.15</v>
-      </c>
-      <c r="AE48">
-        <v>1.57</v>
-      </c>
-      <c r="AF48">
-        <v>2</v>
-      </c>
-      <c r="AG48">
-        <v>1.75</v>
-      </c>
-      <c r="AH48">
-        <v>3.8</v>
-      </c>
-      <c r="AI48">
-        <v>1.25</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL48">
-        <v>1.04</v>
-      </c>
       <c r="AM48">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>4</v>
+        <v>1.42</v>
       </c>
       <c r="AO48">
         <v>-1</v>
       </c>
       <c r="AP48">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AQ48">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AR48">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AS48">
-        <v>2.37</v>
+        <v>2.71</v>
       </c>
       <c r="AT48">
-        <v>3.07</v>
+        <v>3.78</v>
       </c>
       <c r="AU48">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AV48">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="AW48">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AX48">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AY48">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -9164,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="BB48">
-        <v>1.17</v>
+        <v>1.95</v>
       </c>
       <c r="BC48">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="BD48" s="3">
         <v>45792.79166666666</v>
@@ -9178,10 +9166,10 @@
         <v>45792</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -9190,7 +9178,7 @@
         <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -9205,94 +9193,94 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AJ49" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK49" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AM49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
         <v>-1</v>
@@ -9334,13 +9322,13 @@
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BC49">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD49" s="3">
-        <v>45792.79166666666</v>
+        <v>45792.83333333334</v>
       </c>
     </row>
     <row r="50" spans="1:56">
@@ -9348,7 +9336,7 @@
         <v>45792</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
         <v>95</v>
@@ -9360,7 +9348,7 @@
         <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -9375,127 +9363,127 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L50">
-        <v>2.65</v>
+        <v>1.14</v>
       </c>
       <c r="M50">
-        <v>2.99</v>
+        <v>6</v>
       </c>
       <c r="N50">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="O50">
-        <v>1.95</v>
+        <v>1.14</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>1.29</v>
+      </c>
+      <c r="S50">
+        <v>3.5</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.57</v>
+      </c>
+      <c r="V50">
+        <v>5.5</v>
+      </c>
+      <c r="W50">
+        <v>1.14</v>
+      </c>
+      <c r="X50">
+        <v>1.03</v>
+      </c>
+      <c r="Y50">
+        <v>11</v>
+      </c>
+      <c r="Z50">
+        <v>1.2</v>
+      </c>
+      <c r="AA50">
+        <v>4.5</v>
+      </c>
+      <c r="AB50">
+        <v>1.55</v>
+      </c>
+      <c r="AC50">
         <v>2.2</v>
       </c>
-      <c r="R50">
+      <c r="AD50">
+        <v>2.55</v>
+      </c>
+      <c r="AE50">
         <v>1.5</v>
       </c>
-      <c r="S50">
+      <c r="AF50">
         <v>2.5</v>
       </c>
-      <c r="T50">
-        <v>3.4</v>
-      </c>
-      <c r="U50">
-        <v>1.3</v>
-      </c>
-      <c r="V50">
-        <v>10</v>
-      </c>
-      <c r="W50">
-        <v>1.06</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>1.51</v>
-      </c>
-      <c r="AA50">
-        <v>2.56</v>
-      </c>
-      <c r="AB50">
-        <v>2.3</v>
-      </c>
-      <c r="AC50">
+      <c r="AG50">
         <v>1.5</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>1.95</v>
-      </c>
-      <c r="AG50">
-        <v>1.8</v>
-      </c>
       <c r="AH50">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AO50">
         <v>-1</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AR50">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS50">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AU50">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AV50">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY50">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -9504,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>1.95</v>
+        <v>1.14</v>
       </c>
       <c r="BC50">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="BD50" s="3">
-        <v>45792.79166666666</v>
+        <v>45792.89583333334</v>
       </c>
     </row>
     <row r="51" spans="1:56">
@@ -9518,19 +9506,19 @@
         <v>45792</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -9545,127 +9533,127 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM51">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AO51">
         <v>-1</v>
       </c>
       <c r="AP51">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AS51">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AT51">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AU51">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AV51">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AW51">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AX51">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AY51">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -9674,13 +9662,13 @@
         <v>0</v>
       </c>
       <c r="BB51">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BC51">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="BD51" s="3">
-        <v>45792.83333333334</v>
+        <v>45792.89583333334</v>
       </c>
     </row>
     <row r="52" spans="1:56">
@@ -9688,10 +9676,10 @@
         <v>45792</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
@@ -9700,142 +9688,142 @@
         <v>150</v>
       </c>
       <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
         <v>204</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>208</v>
-      </c>
       <c r="L52">
-        <v>1.36</v>
+        <v>2.15</v>
       </c>
       <c r="M52">
-        <v>3.92</v>
+        <v>3.08</v>
       </c>
       <c r="N52">
-        <v>7.8</v>
+        <v>3.03</v>
       </c>
       <c r="O52">
-        <v>1.29</v>
+        <v>1.91</v>
       </c>
       <c r="P52">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="Q52">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="R52">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="S52">
-        <v>2.63</v>
+        <v>2.36</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U52">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="V52">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W52">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="X52">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Y52">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="Z52">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AA52">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AB52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC52">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AD52">
-        <v>3.85</v>
+        <v>4.85</v>
       </c>
       <c r="AE52">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AF52">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AG52">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AH52">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI52">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AJ52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL52">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="AM52">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>2.95</v>
+        <v>1.52</v>
       </c>
       <c r="AO52">
         <v>-1</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="AS52">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="AT52">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AU52">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="AV52">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="AW52">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="AX52">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AY52">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AZ52">
         <v>0</v>
@@ -9844,13 +9832,13 @@
         <v>0</v>
       </c>
       <c r="BB52">
-        <v>1.29</v>
+        <v>1.91</v>
       </c>
       <c r="BC52">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="BD52" s="3">
-        <v>45792.89583333334</v>
+        <v>45792.89930555555</v>
       </c>
     </row>
     <row r="53" spans="1:56">
@@ -9858,19 +9846,19 @@
         <v>45792</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
         <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -9885,127 +9873,127 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L53">
-        <v>1.14</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N53">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="P53">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q53">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="R53">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="S53">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.99</v>
       </c>
       <c r="U53">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="V53">
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="W53">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="X53">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Y53">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z53">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AA53">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AB53">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="AC53">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="AD53">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="AE53">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AF53">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="AG53">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AH53">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="AI53">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AJ53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL53">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="AM53">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AN53">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO53">
         <v>-1</v>
       </c>
       <c r="AP53">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="AR53">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AT53">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AU53">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="AV53">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="AW53">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AX53">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AY53">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AZ53">
         <v>0</v>
@@ -10014,352 +10002,12 @@
         <v>0</v>
       </c>
       <c r="BB53">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="BC53">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="BD53" s="3">
-        <v>45792.89583333334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:56">
-      <c r="A54" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" t="s">
-        <v>206</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>208</v>
-      </c>
-      <c r="L54">
-        <v>2.15</v>
-      </c>
-      <c r="M54">
-        <v>3.08</v>
-      </c>
-      <c r="N54">
-        <v>3.03</v>
-      </c>
-      <c r="O54">
-        <v>1.91</v>
-      </c>
-      <c r="P54">
-        <v>6.25</v>
-      </c>
-      <c r="Q54">
-        <v>2.38</v>
-      </c>
-      <c r="R54">
-        <v>1.58</v>
-      </c>
-      <c r="S54">
-        <v>2.36</v>
-      </c>
-      <c r="T54">
-        <v>3.55</v>
-      </c>
-      <c r="U54">
-        <v>1.24</v>
-      </c>
-      <c r="V54">
-        <v>8.9</v>
-      </c>
-      <c r="W54">
-        <v>1.01</v>
-      </c>
-      <c r="X54">
-        <v>1.12</v>
-      </c>
-      <c r="Y54">
-        <v>6</v>
-      </c>
-      <c r="Z54">
-        <v>1.47</v>
-      </c>
-      <c r="AA54">
-        <v>2.55</v>
-      </c>
-      <c r="AB54">
-        <v>2.2</v>
-      </c>
-      <c r="AC54">
-        <v>1.55</v>
-      </c>
-      <c r="AD54">
-        <v>5.37</v>
-      </c>
-      <c r="AE54">
-        <v>1.14</v>
-      </c>
-      <c r="AF54">
-        <v>2.12</v>
-      </c>
-      <c r="AG54">
-        <v>1.67</v>
-      </c>
-      <c r="AH54">
-        <v>13</v>
-      </c>
-      <c r="AI54">
-        <v>1.04</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL54">
-        <v>1.4</v>
-      </c>
-      <c r="AM54">
-        <v>1.35</v>
-      </c>
-      <c r="AN54">
-        <v>1.53</v>
-      </c>
-      <c r="AO54">
-        <v>-1</v>
-      </c>
-      <c r="AP54">
-        <v>1.26</v>
-      </c>
-      <c r="AQ54">
-        <v>1.46</v>
-      </c>
-      <c r="AR54">
-        <v>1.74</v>
-      </c>
-      <c r="AS54">
-        <v>2.11</v>
-      </c>
-      <c r="AT54">
-        <v>2.7</v>
-      </c>
-      <c r="AU54">
-        <v>3.65</v>
-      </c>
-      <c r="AV54">
-        <v>2.5</v>
-      </c>
-      <c r="AW54">
-        <v>1.96</v>
-      </c>
-      <c r="AX54">
-        <v>1.6</v>
-      </c>
-      <c r="AY54">
-        <v>1.38</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>1.91</v>
-      </c>
-      <c r="BC54">
-        <v>2.38</v>
-      </c>
-      <c r="BD54" s="3">
-        <v>45792.89930555555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:56">
-      <c r="A55" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>208</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>-1</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55" s="3">
         <v>45792.9375</v>
       </c>
     </row>
